--- a/Technology_jobs.xlsx
+++ b/Technology_jobs.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13498</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11">
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
